--- a/python/volume/ssb-pandas/results/plots/time-gaps.xlsx
+++ b/python/volume/ssb-pandas/results/plots/time-gaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/python/volume/ssb-pandas/results/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333B9AB7-30D1-504C-A0AF-59D8DDAABB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C586E3A-DB83-4442-97B3-8CFACB27F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27600" windowHeight="17440" activeTab="5" xr2:uid="{3866CB68-4410-2748-849C-279C621E4371}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17440" activeTab="5" xr2:uid="{3866CB68-4410-2748-849C-279C621E4371}"/>
   </bookViews>
   <sheets>
     <sheet name="Q11" sheetId="3" r:id="rId1"/>
@@ -546,7 +546,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2244,7 +2244,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10422,7 +10422,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10859,7 +10859,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14545,7 +14545,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -22878,7 +22878,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -28778,7 +28778,7 @@
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29225,7 +29225,7 @@
   <dimension ref="A1:A481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31651,7 +31651,7 @@
   <dimension ref="A1:A2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44877,7 +44877,7 @@
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45203,7 +45203,7 @@
   <dimension ref="A1:A1145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50949,7 +50949,7 @@
   <dimension ref="A1:A2847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
